--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MySoft\DBMS\DBMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0FFBA6-B28D-42DC-BA84-836B8A94C3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEAFDB1-742A-4994-BEAF-15484341FD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11970" yWindow="5865" windowWidth="16515" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7095" yWindow="3795" windowWidth="21465" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Задача</t>
   </si>
@@ -39,9 +39,6 @@
     <t>в TextBox нет возможности указать SelectionBrush, либо он не читается</t>
   </si>
   <si>
-    <t>Новая</t>
-  </si>
-  <si>
     <t>Дата создания</t>
   </si>
   <si>
@@ -55,6 +52,12 @@
   </si>
   <si>
     <t>Сделать сохранение Серверов при подключении</t>
+  </si>
+  <si>
+    <t>Выполнено</t>
+  </si>
+  <si>
+    <t>Перейти на Simple тему</t>
   </si>
 </sst>
 </file>
@@ -373,22 +376,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -397,18 +400,18 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>45907</v>
@@ -416,13 +419,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>45907</v>
@@ -430,16 +433,24 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
       </c>
       <c r="D4" s="1">
         <v>45907</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
